--- a/Pertemuan 12/Trip Advisor/pantai_losari_review.xlsx
+++ b/Pertemuan 12/Trip Advisor/pantai_losari_review.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1691,6 +1691,1259 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>differensiasi</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Sangat bagus untuk dijadikan alternatif wisata
+Kalau siang terlalu panas suasanya
+Malam lebih baik
+Hanya anjungan dengan banyak pedagang makanan tradisional
+Pemandangannya sangat bagus</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>fantiy d</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Awasome.. tidak afdol rasanya ke makassar tanpa mengunjungi pantai losari. Banyak makanan khas sekitar, dan best sunset view ❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>idho</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Ngga salah kalo kota ini merupakan salah satu destinasi di indonesia timur dgn beragam destinasi wisata, dan pantai ini merupakan salah satu icon kota dan tempat hangout masyarakat, dgn kemudahan akses dan beragam jajanan yg dijajakan disepanjang track ini sangat bagus dikunjungi untuk sore dan pagi hari</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>adhehariani</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Sangat indah... tempat nongkrong ketika gak mood dirmh dan kepengen makan pispe ..pantai losari tempat pilihanku.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Merry S</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Bagus buat nongkrong....nunggu SUNSET☀️☀️☀️ Banyakkkkk banget jajanan lokal khas Makassar....parkiran gratis, di area Masjid yaa. Selain itu bayar. Dan buat nongkrong malam juga enak banget pinggir pantai angin sepoi-sepoi....🍃🍃🍃🍃🍃</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ayu23747</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Kalo ke Makassae tidak mampir kesini rasanya kurang afdol. Menikmati senja di pantai losari sangat mengagumkan. Namun, sangat disayangkan banyak sampah berserakan di pantai tsb. Mengurangi keindahan pantai.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>nurzaenab s</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>jika traveler ke Makassar, tidak usah repot jauh-jauh cari spot untuk menikmati sunset, DI Losari traveler bisa menikmati sunset sambil duduk cantik sambil menyantap kuliner khas makassar, Disini ada Pisang epe, pisang ijo dan lainnya, sambil duduk santai menikmati indahnya matahari yg perlahan terbenam, Ohya sambil sesekali ada perahu nelayan yg pulang melaut.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Anis Anastasia Perwitasari</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Kembali berkunjung setelah 2 tahun tak ke Makassar.Singgah di pantai Losari di sore hari masih tetap menyenangkan,terlebih bagi saya yang memang menyukai pemandangan pantai.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>ndysfashionstore</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Berkunjung ke pantai di sore dan malam hari sungguh menyenangkan. Melihat sunset, makan pisang epe, melihat para pelukis berbakat beraksi</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Handi Suyadi</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Sebenarnya bukan murni pantai, melainkan pedestrian di pinggir daratan. Setiap sudut didesain menarik dengan tulisan pantai losari sebagai ikon-nya.
+Tak perlu mengeluarkan biaya untuk masuk. Karena gratis, sering digunakan oleh warga lokal untuk berekreasi.
+Kalau ingin jajan ada juga pedagang kaki lima dengan pilihan makanan beragam.
+Pada hari tertentu (terutama hari libur) akan sangat ramai dan penuh oleh dagangan juga. Sebenarnya menikmati sunset pada sore hari kurang nyaman karena sering dipenuhi pengunjung. Lebih baik datang pada pagi hari karena lebih sepi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>marlizaharahap</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Pantai yang asyik buat santai di Kota Makassar sambil menunggu sunset. Tempatnya bersih, tidak banyak pedagang asongan. Lokasinya mudah dicapai dari pusat kota. Sayangnya jalan di sekitar kecil dan sangat macet. Disekitar lokasi juga tidak banyak restoran yang menyediakan seafood.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>RE M</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Jalan satu arah sangat padat banyak parkir kendaraan, sepanjang jalan banyak yang berjualan pisang epe, hotel budget di sekitar banyak tapi kurang nyaman. Lebih baik sewa hotel yg berbintang kalau mau nyaman.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Linlintonton</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>selalu kangen pisang epek di malam hari, sambil menikmati indahnya pemandangan di malam hari, nyaman dan hilang capek kerja seharian.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Rival S</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>sangat tidak bersih.
+•bau sampah dari laut, air lautnya sudah menghitam.
+•terkesan berantakan (penempatan pedagang yang berjualan di sepanjang pantai juga penempatan instalasi-instalasi seninya), banyak instalasi sudah rusak tapi nampaknya tak diberi perawatan dan pengawasan yang baik.
+•makanan yang dijual sangat tidak bervariasi (kebanyakan hanya pedagang pisang epe)</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Imaduddien Sobri</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Pantai Losari merupakan tempat terbaik bagi anda untuk menikmati sunset terindah di makassar. Jangan lupa nikmati hidangan pisang eppe disini, jika anda ingin mengaku sudah pernah ke makassar..</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>AnisaMuslicha</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Pantai Losari adalah salah satu ikon makasar yang cukup terkenal. Enak juga buat jalan-jalan sepanjang pantai bersama teman atau sendiri sambil berolahraga dipagi hari. Pemandangan laut lepas bisa membuat perasaan nyaman.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Junaedi J</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Pantai losari ciri khas kota makassar kebersihan semoga tetap dijaga dan ditingkatkan lagi dan lebih mantapnya lagi parkir pengunjung sudah diatur dan dijaga satpol pp</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Antohokkeh</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Pantai losari wajib dikunjungi bila berada di makasar. Sepanjang garis pantai losari disediakan jogging trek, meskipun begitu pantai ini tidak memiliki pasir jadi kita hanya bisa menikmati pantai ini hanya untuk mengambil gambar atau duduk di banyak tempat jajanan sepanjang pantai ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Floryan M</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Anjungan Losari (bukan pantai) tempat ini sangat populer di kota Makassar, ikon yg satu ini sangat bermanfaat bagi semua kalangan di kota ini, dapat menikmati sunset.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>rendrabbraun</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Penasaran dgn ikon Makassar,apalagi jadi tempat syuting beberapa stasiun TV.bila sore memang asyik untuk kongkow2 menikmati angin laut dan lampu2 sekitar.Tapi bila kunjungan pagi/siang sangat panas,agak gersang. Kalau untuk foto2 oke...tapi bila datang untuk rekreasi bersama keluarga tidak bisa berharap lebih</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Wilianto1</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Pantai paling hits disini. Beraneka aktivitas masyarakat makassar untuk bersantai dapat di lihat disini.
+Beberapa spot berswa foto juga dapat dilakukan disini dan dengan latar belakang yang berbeda beda.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>kaumNUsantara</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Pantai ini bagus pemandangannya saat senja. namun banyak sampah mengapung di air sehingga mengganggu pemandangan. Mohon Pemkot Makassar menata dan menjaga kebersihannya agar keindahan alamnya.
+Pantai ini kan icon Kota Makassar. Apalagi ada masjid terapung yang menarik perhatian wisatawan</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Syamscool</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Sun set disini sangat keren akan tetapi sayang kotor banget. Sampah dimana-mana. Coba sampah dibuang pada tempatnya.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>merrymagdalena</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Percaya ga percaya... banyak banget liat orang review kalo harus ke pantai ini.. biasa banget menurut saya.. tp gimana ya.. memang benar tampaknya apa pepatah orang bilang.. " Belum ke makassar kalo belum ke pantai Losari..." jadi hari ke 2 akhirnya memutuskan untuk tetap ke pantai ini... banyak orang meluang kan waktunya untuk bersantai ria di sini... banyak anak anak yang mampir disini, bermain dan bercanda gurau..
+Ayo jgn ragu untuk luangkan waktu ke sini..</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>tadjuddin</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Pantainya heboh dengan orang berfoto. Ini yg membuat seru viewnya. Apalagi ada pembangunandi depan pantai.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Arifayani</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Kalau ke Makassar dan tidak mengunjungi Pantai Losari rasanya memang tidak lengkap. Apa lagi jika belum berfoto dengan background tulisan PANTAI LOSARI atau tulisan MAKASSAR CITY. Paling pas jika mengunjungi tempat ini di sore hari saat cuaca sudah tidak terlalu terik dan bisa menyaksikan pemandangan sunset yang sangat indah. Di tempat ini juga ada masjid dengan arsitektur modern yang cukup nyaman. Pengunjung bahkan bisa naik ke bagian atas masjid untuk melihat sunset atau pemandangan kota Makassar. Oh iya, jangan lupa mencicipi makanan khas Makassar yaitu pisang Epe yang dijajakan di sepanjang pantai losari. Berkunjung ke sini lebih baik naik kendaraan berbasis online karena kadang sulit mencari tempat parkir, terlebih di akhir pekan. Selamat menikmati liburan anda :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Lisbet_310183</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Pantainya agak kotor dan tidak terawat serta ada bau yang kurang sedap. Sering digunakan untuk berbagai acara musik. Pada saat sore hari, ada banyak pemuda-pemudi yang kumpul. Ada banyak restoran di sekitar pantai yang bisa dijadikan tempat untuk makan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Hasrat H</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Menikmati minuman khas makassar “Sarabba” bersama teman-teman di Pantai Losari Kota Makassar Sulawesi Selatan..</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>flyingdents</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Ke sana malam dan jalan-jalan. Ada hiburan musik, hewan yang bisa dipegang dan diajak foto bareng, robot-robot transformer
+Very NICEEEE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>andhitan2018</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Menyusuri pantai losari yg begitu indah bersama suami dan keluarga, menikmati pisang epek yg ada di sepanjang pantai. Ahhh pengen kesini lagi</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Outman Ardy</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Tempat nya bagus saat dikunjungi sore hari karena terletak di sebelah barat sehingga kita bisa melihat sunset.
+Sekitar pantai losari juga ada tempat nongkrong. Ada tempat main futsal juga.
+Kalau sore disini sangat ramai.
+Di dekat sini juga ada masjid apung.
+Cocok untuk menghabiskan waktu di sore hari dengan pasangan atau keluarga.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>kacongkarya</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Pantai dan pemandangannya sangat bagus dan jajanan khas makassar sangat banyak dan murah sabgat cocok buat liburan keluarga.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Ihwana A</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Tempat yang cocok untuk wisata kuliner dengan pantai yang indah serta salah satu destinasi wisata yang memiliki keindahan matahari sore</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>septiyo</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Cocok untuk anda yang suka nongkrong. Pemandangan lampu di malam hari bikin ngantuk. Dekat dengan tempat hiburan</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>El</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Menikmati jalan pagi dilosari sangat menyenangkan. Pemadangan laut. Bersih dan tidak terlalu banyak orang berlalulalang.spot spot foto banyak bertebaran di sepanjang pantai yg kesemuanya bernamakan nama khas suku di makassar. Tidak afdol kl ke makassar tidak mampir ke losari
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>habibullah-lakoni</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Keindahan pantai losari tertutupi dengan berbagai proyek reklamasi, emang Sulawesi Selatan sudah ngak ada tempat lain untuk dibangun sehingga maksain untuk reklamasi pantai losari</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>ObayWarobay</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Jika mendengar kata pantai, pasti yang ada dibayangan kita adalah pasir &amp; ombak. Di pantai Losari ini jangan berharap ada pasir &amp; ombak.
+Pantai Losari lebih tepatnya bukan disebut pantai, tempat ini lebih pantas disebut dermaga dengan beberapa spot foto. tidak banyak hal menarik dari pantai losari, penuh keramaian orang yang ini berfoto dengan tulisan LOSARI. mungkin kalau sore hari cukup bagus jika ingin melihat sunset.
+sekitaran pantai losari banyak pedagang kaki lima yang berjualan, jika menuju malam, banyak orang berjualan makanan dari pisang bakar hingga roti bakar.
+tidak banyak hal menarik di Pantai Losari.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Syariimanda</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Lumayan ramai, banyak anak muda mudi, hati-hati terhadap tas bawaan banyak copet, dekat masjid amirul mukminin, lampu-lampu menambah indah pemandangan malam</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Angelien S</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Agak kaget melihat lokasi losari sekarang, krn sdh cukup lama baru ke makassar lg. Skrg lokasi tulisan losarinya kotor, udh banyak skali tenda jualan, pdahal dulu tempatnya luas &amp; bersih. Sy malah agak kurang nyaman&amp;sejujurnya kecewa krn itu termsk tempat yg wajib dikunjungi kalau ke makassar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Aulia P</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Disini banyak booth2 yg menjual makanan, aksesoris, dan oleh2. Kalau berkunjung kesini jangan lupa cobain pisang peppe &amp; jagung bakarnya ya! karena cuma disini kamu bisa nikmatin jagung bakar yg sudah di "pretelin" (sorry idk how to spell it 😂)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>yusufhakim17</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Lokasi yang strategis berada dipusat kota dan tidak jauh dr bandara menjadikan wisata pantai ini mudah dijangkau dan jadi salah satu tujuan turis. akan tetapi menurut saya pusat makanan yang ada kurang tertata dan harga yang cukup tinggi dan pantainya pun kurang memiliki fasilitas yang lengkap. sehingga menjadikan pantai losari hanya objek berfoto ria. seharusnya ada wahana terutama bagi mereka yang membawa keluarga.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Cynthia2404</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Makan pisang epe enaknya assoy , sukanya rasa durian apalagi dengan minuman khas makassar yakni sarabba .mantaap</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>sugeng r</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Walaupun dgn waktu kunjungan yg sangat singkat.. tidak lengkap rasanya ke Makassar tanpa ke pantai Losari..</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>fajri p</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>standar sih klo menurut saya, cuman suka kulineran makan pisang epe aja karena disini banyak yang jualan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>wydha</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Tidak sah kemakassar kalau belum jalan-jalan kepantai losari,,, ini adalah salah satu panorama alam dimakassar</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Umayghassan</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Kesini siang hari...tapi tetap rame. Untuk anak balita dan anak bagus karena punya area yang luas untuk bermain. Perlu di perhatikan tempat berteduhnya itu ada yang mesti direnov. Overall ok lah. Selalu kesini kalau ke makassar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Birgitta Thia R</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Jangan membayangkan hamparan pasir dan ombak, karna tidak akan anda temui disini. Tapi anda bisa melakukan berbagai aktifitas olahraga atau sekedar duduk menikmati suasana bersama keluarga atau komunitas anda. Tempat ini lebih ramai saat sore dan malam hari,terlebih saat akhir pekan karna saat siang sangat panas disini. Ada banyak warung tenda yg menjual berbagai macam makanan serta minuman khas kota makassar. Jangan lupa untuk tetap berhati-hati menjaga barang bawaan anda sembari menikmati liburan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Hisar Mauliate S</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Tidak sempat singgah jadi hanya melihat karena waktu sudah mepet, tapi lumayan lah untuk menikmati alam pantai pada umumnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>RusminIndra</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Ok. First impression when you beach is sand... tapi kalau ke pantai losari pasti akan brtnya, mana pantainya? Hal ini yang membuat saya heran saat pertama kali berkunjung ke sana. But well, pantai ini cukup panjang dan samgat ramai di malam hari. Jangan harap ada yang berjemur saat siang hari di pantai ini. Sama sekali tak akan. Pantai ini terletak di sebelah barat Makassar. Sayangnya pantai ini kadang terlihat kotor dan tak terlalu terawat. Banyak pedagang kaki lima yang berjualan sepanjang jalan. Di hari minggu pantai ini akan dijadikan daerah CFD.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Agus M Huda</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Pantai di pinggir kota makassar ini sangat memikat wisatawan yg datang ke pantai losari. Banyak sekali perubahan setelah 2 tahun yang lalu kesini. Sangat nyaman untuk bersantai bersama keluarga. Ada masjid terapung yang sangat mewah di atas air laut. Kalau ke makassar wajib main ke pantai losari.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Juli Dwi</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Sengaja memilih jalan jalan sendiri. Merasakan keheningan di tengah keramaian menjelang senja di pantai Losari terasa sesuatu banget. Anjungan pantai Losari terasa semakin ramai saat senja menjelang sunset dan malam. Berbagai jenis tenda makanan khas Makassar seperti pisang epe' dan sarabba jadi pelengkap.
+Berburu kuliner tidak saja di sepanjang sekitar anjungan, tapi hunting pisang ijo yang legendaris bisa ditemukan di resto sekitar anjungan dan makanan lainnya seperti Coto, mie Titi, palubasa.
+Tak lupa untuk berburu oleh-oleh di sekitarnya...Ada kacang disko, teng teng kacang, sirup markisa. Semua bikin ngiler hehe...</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Zephaniah H</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Suasananya ramai, banyak pedagang makanan di sekitarnya, saat matahari terbenam sangat indah untuk dilihat dari pantai losari, akses ke sana sangat mudah.</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Muda Supriyanto</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Mengunjungi pantai Losari di Kota Makassar Provinsi Sulawesi Selatan sangat ramai warga yang menikmati suasana sore menjelang Sunset.</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>indrayazaz</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Salah satu pantai khas di makassar, wajib di kunjungi untuk foto kenang2an
+Baiknya datang saat sore menjelang malam</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Ayun N</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Suasana bagus, cocok untuk jalan2 atau foto2. Sayangnya pintunya serbg ditutup. Toko souvenirnya tdk ada, baiknya diperbanyak lagi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Yanes Panie</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Saya bersama keluarga ke pantai ini untuk berfoto, di sini ada sejumlah patung, seperti patung kapal pinisi, rumah tongkonan dan sejumlah patung pahlawan. Selain itu ada sejumlah patung tulisan seperti city of makassar, toraja, mandar, dan lain-lain.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ryan mp</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Pantai cukup bersih dan terdapat beberapa patung pahlawan serta tokoh masyarakat. Terdapat juga lapangan futsal yang sering dijadikan tempat turnamen. Sayang sekali terdapat pembangunan reklamasi diseberang pantai, sehingga pemandangan laut lepas akan terhalang oleh zona reklamasi tersebut.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>suli_nasroh</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Losari dalam bayangan saya awalnya adalah selayaknya kota yg pinggirnya pantai..ramai..bersih..indah..terawaat..
+Saya menginap di Golden Hotel Makassar, pagi jam 5an keluar hotel untuk jalan jalan menikmati Losari...tapiii yg saya dapatkan..aroma pesiing sangaat kuaat dan pantainya kotor...sediih bgt ngliatnya.
+Diliat dr posisinya haruusnya Losari bisaa lebiih kereen..keramaianya dapat..makanan di sepanjang jalan.. ada pemusiknya...tempat utk melepas penat..
+Semoga ke depannya pantai Losari lebiih bersih dan terawat, dan kita sebagai pengunjung ikut menjaga dgn tidak buang sampah dan kencing sembarangan!</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Novilia T</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Pantai ini cocok untuk rekreasi di malam hari karena banyak pedagang makanan yang berjualan dan berfoto karena lampu-lampunya yang bagus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>n0viann</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Pemandangan di pantai ini sebenarnya cukup bagus, apalagi saat matahari terbenam itulah waktu paling tepat menurut saya untuk berkunjung kesini. Penampakan kapal pinisi di pesisir pantai serta tersedianya sarana hiburan di pantai ini bisa jadi alternatif hiburan bagi para traveller sekaligus photo hunter. Belum lagi cantiknya Masjid terapung yang berada di pantai ini, Masjid Amirul Mukminin yang bisa menjadi salah satu spot terbaik saat berfoto.
+Namun sangat disayangkan lokasi dan pemandangan yang bagus ini tidak ditunjang dengan kebersihannya. Sampah banyak menumpuk di beberapa sudut anjungan, belum lagi bau pesing yang cukup menyengat.
+Tapi kalau untuk sekedar jalan-jalan dan mencari spot untuk berfoto sih recomended banget disini, lokasi tidak jauh dari pusat kota dan yang paling penting murah meriah...hanya bayar parkir saja :D
+Untuk yang membawa kendaraan khususnya sepeda motor saya sarankan harus extra hati-hati ya karena kabarnya disini tidak sedikit motor yang hilang. Lebih aman kalau drop &amp; jemput saja kalau mau kesini</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>bay_onesus</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Pantai belum terjaga kebersihannya, banyak sampah dipantai, menjadikan tidak sedap dipandang mata. Area parkir sudah cukup, pedestrian sudah Bagus, tolong pemerintah daerah care dengan kebersihan pantai losari ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>irwan Widjaja</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Pada malam hari di tanggal 17 Oktober 2017, saya diajak oleh rekan-rekan kantor cabang untuk makan di RM 77 yang berada tepat didepan mesjid raya pantai losari. Suasana cukup ramai dan kuliner sesuai dengan standar yang ada dari resto 77 tersebut. Selanjutnya berjalan sejenak bersama rekan-rekan menyusuri jalan sekitar pantai losari.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Age_Hananta</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Sekitaran pantai losari merupakan salah satu pusat keramaian di makassar, apalagi pas weekend, berbagai macam permainan anak, panggung hiburan, dan penjual banyak banget.. Lokasinya sebenarnya bagus untuk berfoto ria, tapi sayang.. air lautnya, terutama sekitar masjid terapung, banyak ditemukan sampah, dan bau pesing yang mengganggu..</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>vengky</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Pantai losari tempat yang cocok untuk pergi bersantai sambil menikmati pemandangan pantai dan sunset pada sore hari. Bisa juga jalan2 untuk berfoto2. Malam hari bisa menikmati pisang epe salah satu menu makassar</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Mujono M</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Ketika kunjungan bisnisnke makasar, saya sempatkan negok pantai losari yang konon terkenal.
+setiba di sana emang enak, bersih, segar, banyak yg jual cinderamata sekitarblokasi
+relatif ramai apalaginkalau week end..
+bonus udara cerah dan pagi itu drumb band acara ulang tahun kota makassar
+pantai losari emang top</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>wanderlustid</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Pantai Losari adalah hotspotnya Makassar. Di sore dan malam hari sangat ramai pengunjung. Mereka menikmati sepoi angin laut sambil menyantap pisang epek dan minuman saraba yang banyak dijual di sepanjang pantai.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>evril n</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Kedua kali ini ke makassar. Tapi Baru kali ini ke pantai losari. Awalnya it's okay jalan kaki dr best western hotel. Lumayan 900m. Sesampainya di pantai losari nunggu sunset. Muter muter ndak jelas. Eehhh. Tetiba turun hujan deras akhirnya berteduh di tugunya sambil nunggu sunset disana. Dann taraaa. Sunsetnya bagus juga walopun ujan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Donny I</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Pantai yang sering digunakan warga makassar untuk berjalan-jalan menikmati angin dari laut dengan olahan makanan minuman disekitar pantai</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>omanhomsa</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>datang kesini karena penasaran dengan Pantai Losari, ternyata baground dibelakang pantai ini ada Reklamasi nya yaa, hmm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Augrah nurul H</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Merupakan destinasi yg tdk boleh terlewatkan saat ke Makassar dngn pantai yg sangat luas dan kebanggan masyarakat makassar dan juga menawarkan panorama yg indah saat malam hari dengn suasana yg baik untuk keluarga</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>kk_funky</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Waktu favorit lebih baik sore hari, sudah tidak terlalu panas dan banyak jajanan.. Tapi bersiap untuk kerumunan orang yang sangat banyak dan... kemungkinan hujan....</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Sumantri H</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Menimati sore hari di pantai losari sangatlah mengasikan. Lokasi pantai yg berada di tengah kota makassar ini memang menjadi destinasi favorit masyarakat kota makassar maupun wisatawan yg sedang berada di Makassar tidak terkecuali saya.
+Penataan pantai ini sebenarnya sdh sangat baik, namun yang disayangkan kebersihannya krn msh byk pengunjung yg meninggalkan bungkus2 makanan/minuman begitu saja, taman2 yg tidak terawat dan pedagang K5 yg menurut sy cukup mengganggu pemandangan. Jika sj pedagang2 ini di tata dgn rapih mungkin akan lebih nyaman lagi utk pengunjung terutama utk wisatawan yg menginap di hotel2 sekitar pantai ini.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>eko k</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Tidak pernah bosan rasanya untuk berada di Pantai Losari saat senja, sambil menanti mentari tenggelam menikmati angin sepoi ditemani pisang epe bakar yg disiram gula merah cair, sungguh nikmatnya... ketika waktu tenggelam tiba, birunya langit berubah menjadi jingga... sungguh sangat mempesona</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>niermacas</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Pantai losari sebenarnya tempatnya asyik, sering ada even-even disana, tapi sayangnya sih pantainya kurang terawat, airnya warna nya coklat, padahal tamannya uda bagus loh, view nya jg bagus..</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Rindya K</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Ngemil pisang eppe,jagung bakar serut dan es teler sembari menikmati semilir angin pantai sore2...bnyk jg hiburan yg lain..seruu menyenangkan</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>w1nd03</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Ke sana sekitar jam 11 siang, panas. Dapat memandang pembangunan pelabuhan baru Makassar dan kawasan reklamasi lainnya, juga masjid terapung.
+Tempat sedikit kurang bersih.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>AmranHalim</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Pantai Losari adalah pantai reklamasi di Kota Makasar. Menjadi destinasi ciptaan yg harus dikunjungi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>samiirahs</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Suasana dan pemandangan disini semakin menarik. Setiap ada keluarga datang dri luar mks, pasti diajak kesini. Spot foto jga semakin banyak.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Bry M</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Masih kurang fasilitas umum yg bersih.. seperti toilet.. dan fasilitas bermain anak.. juga sedikit panas.. dan kebersihan belum maksimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Alek - Indonesian Traders</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Senin tgl 9 oktober 2017 pagi jalan jalan ke Pantai Losari, berharap suasana yang belum begitu panas bisa menikmati pemandangan yang sejuk diseputaran anjungan Pantai Losari, namun apa daya sampah berserakan dimana mana sisa aktifitas panggung malam harinya.
+Losariku Sayang Losariku Malang 😭😭😭
+Harusnya Aktifitas Apapun yang dilakukan di sini KEBERSIHAN TETAP NOMOR SATU!</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Agustini_tandean</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Pantai Losari bisa disebut sebagai salah satu ikon unik dari kota Makassar. Pantai ini terletak di pesisir kota Makassar, transportasi menuju tempat ini banyak dari angkutan umum sampai angkutan tradisonal seperti becak. Pantai losari biasa ramai dikunjungi sore hari, karena keindahan sunset di tempat ini plus banyak tersedia makanan khas makassar seperti pisang epe. Dulu pantai losari dikenal sebagai warung / tempat makan terpanjang di dunia karena jejeran warung2 nya katanya sih mencapai 1 km, tapi sekarang warung2 itu telah direlokasi, dan pantai ini sdh ditata dengan lebih rapi dan dijamin menghabiskan malam di pantai ini jadi lebih berkesan. Salah satu bangunan di pantai losari ini adalah mesjid Amirul Mukmin atau lebih dikenal dengan nama Mesjid terapung, disebut terapung karena berada di atas air. Jadi setelah menikmati sunset di pantai losari tak ada salahnya menyempatkan diri untuk sholat magrib di mesjid ini. Buat anda yang berkunjung ke Makassar, wajib mengunjungi tempat ini, gak afdol kalo sudah ke Makassar tapi belum melongok keindahan pantai losari, apalagi di malam hari</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>shantydila f</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Muantaap tempatnya dan dekat dr pantai losari..terima kasih travellers phinisi hotel makassar, untuk ke trans jg dekat sm wisata kuliner pkoke muantap.cayo THPM</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Jeffrey T</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Di pinggir pantai banyak penjual kuliner khas makasar terutama pisang epe dan makanan makasar lainnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Arief K</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Tempat yang asik melihat Sunset sambil hunting foto. Menghirup udara laut yang segar sambil menunggu sunset dipantai losari</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Ahli Sahra</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Tempat refresing untuk semua orang baik warga makassar maupun wisatawan.beragam jajanan di jual ada pisang epek,es pisang hijau dll.bisa lihat matahari terbit/terbenam.para pedagang pada ramah" menyapa pengunjung yg datang.
+"Pantai losari is the best"</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>abdullah s</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Tempat yang bagus, lengkap dengan fasilitas masjid, saya hanya berharap pemda tetap menjaga agar keamanan di tingkatkan, termasuk kebersihan dan tdk membiarkan di jadikan area bebas bagi pasangan muda mudi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>nitaroviana</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Losari Beach terletak di pusat kota Makassar. Sekitar 30 menit dari bandara internasional Sultan Hasanuddin, Makassar. Jangan bayangkan bahwa pantai Losari merupakan pantai yang tenang, sejuk, dengan hamparan pasir. Karena yang akan Anda temui adalah food street, cafe, panggung hiburan, dan sejenisnya. Di sepanjang jalan Losari Beach, banyak ditemui penjual pisang epe dan es pisang ijo, yang merupakan kuliner khas Makassar.
+Jika mengunjungi tempat ini di siang hari, akan terasa panas dan gerah. Saya menyarankan untuk mengunjungi tempat ini di sore hari sambil menunggu sunrise yang indah. Dilanjutkan malam hari, untuk sekedar berjalan-jalan santai atau nongkrong bersama teman. Semakin malam, tempat ini semakin ramai pengunjung.
+Jika Anda seorang muslim, Anda dapat menyempatkan diri beribadah di Masjid Amirul Mukminin, atau lebih dikenal dengan "Masjid Terapung" di pantai Losari.
+Jika ingin menginap, tak perlu khawatir karena di sekitar Losari banyak tersedia hotel.
+Saya baru 2x kesini, namun jika saya ke Makassar lagi, saya ingin selalu menyempatkan diri untuk datang ke tempat ini lagi..</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Bear Advisor</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Saya berkunjung ke sini karena ada festival tahunan F8 , dimana festival ini adalah festival dengan 8 konsep berbeda dan dilokasikan diseluruh pantai losari.
+Keadaan makassar yang paling utama macet nya sangat sangat membuat mood anda berubah total.
+kemudian,
+keadaan disini sangat tidak nyaman. selain berbau pesing (bau buang air kecil yang tidak dibersihkan) dan juga kondisi laut yang tercemar sampah. Belum lagi banyak kriminal seperti perampok dengan berbagai modus karena penjagaan yang kurang.
+Untuk festivalnya sih bagus banget untuk tempatnya mengecewakan. Parkir liar juga banyak karena tidak ada wadah parkir yang resmi.
+Semoga review saya bermanfaat!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>rizayunan</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>sore hingga malam adalah saat yang tepat untuk menikmati pantai ini, banyak sentra kuliner es palu butung, coto makassar...</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Fajar P</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Jangan bayangkan pantai losari seperti pantai yg bisa berenang2, water sport. Lokasi pantai losari ini lebih seperti tempat untuk berkumpul, melihat sunset, atau sekedar foto2. Ada sign khusus tulisan MAKASAR atau LOSARI yg biasa buat spot wajib foto, terus ada masjid Amirul Mukminin bisa jadi salah satu tempat dikunjungi. Happy holiday.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>JuanitaDz</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Sejauh ini anjungan pantai losari banyak perkembangan infrastrukturnya. Adanya pembangunan dari pemerintah membuat pantai losari semkin banyak dikunjungi wisatawan, dan pedagang sudah teratur dibanding sebelumnya. Terdapat juga tim kamanan yang menjaga di sekitaran pantai losari jadi lebih aman.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Hidayati D</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Walaupun bukan hari libur pantai ini sangat ramai pengunjung, apalagi saat malam hari ramai sekali... Warung tenda makanan berjejer sepanjang pinggir pantai, yang jadi menu andalan yaitu pisang epe. Ada juga tempat makan lainnya di seberang jalan dari pinggir pantai. Banyak point yang bisa dijadikan tempat untuk berfoto. Ada juga masjid apung atau masjid di atas laut di pantai losari ini.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>lukassus26</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>lokasi yang mudah dijangkau ditata dengan apik dan berdasarkan suku yang ada, dengan suasana panas tetapi sejuk</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>riska161</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>pantai losari ini mirip dengan pantai kuta jika di bali namun tidak ada pasirnya. Disini banyak orang berkumpul untuk sekedar melihat sunset ada sekedar jalan jalan. Sunset di pantai losari sangat menarik. Tidak ada biaya masuk ke pantai ini menjadikan pantai ini ramai dikunjungi wisatawan</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>ekosrihartantobni</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Pantainya menarik, banyak temapat makan disekitarnya, dekat dengan pusat oleh-oleh terutama minyak tawon dan kapal pinisi</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>MasUmi1304</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Mengunjungi pantai Losari lagi setelah beberapa lama tidak kesini memperlihatkan batapa banyak perkembangan yang terjadi di sini. Suka dengan Mesjid nya, tapi sayang tidak bisa menikmati pemandangan di depan situ lebih lama, banyak sekali sampah di bawah jembatan yang membuat aroma nya kurang enak. Saya kira itu tergantung lagi dengan kesadaran membuang sampah di tempat sampah untuk masyarakat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Diah Ayu</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Mengunjungi salah satu icon kota Makassar ternyata memang dekat dengan kota dan tanpa tiket masuk alias gratis namun suasana yang ramai tidak disertai dengan kebersihan yang mutlak diperlukan. terdapat wisata air namun kurang playground untuk anak-anak. food court cukup banyak.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Edward M</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>saya menikmati sore di Losari ...
+tempatnya terlalu ramai dan crowded...
+kurang berish dan agak bau pesing.
+saya juga menyewa perahu boat dfn harga cukup murah. Lumayan menikmati udara swgar dan melihat kota Makassar dari sisi pantai...
+letaknya yg dekat ke perhotelan dan malam hari ramai dgn pedagang makanan memberi nilai tambah pantai ini. Krn pantai ini icon makassar, rasanya belum resmi berkunjung kalau blm selfie sunset di makassar...</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>silvia f</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Tempat nongkrong. Sepanjang jalan menjual pisang eppe khas makasar dan jagung bakar. Pantai nya sendiri sudah tidak ada. Dibangun batas pembatas, airnya sudah kotor jika malam baunya menyengat. Sayang sekali,,,</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Norita S</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Saya mengunjungi pantai sekitar jam 5 sore. Agak sedikit sulit untuk mendapatkan foto yang bagus di depan tulisan Pantai Losari karena sangat banyak orang yang lalu lalang. Pantai nya juga sedikit kotor, terlihat beberapa sampah plastik ditepian pantai. Namun cukup menyenangkan menikmati sore sambil duduk santai menyantap makanan dan minuman yang banyak dijual oleh warung warung di depan pantai.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
